--- a/biology/Botanique/Forêt_rare_du_Lac-Boulé/Forêt_rare_du_Lac-Boulé.xlsx
+++ b/biology/Botanique/Forêt_rare_du_Lac-Boulé/Forêt_rare_du_Lac-Boulé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_du_Lac-Boul%C3%A9</t>
+          <t>Forêt_rare_du_Lac-Boulé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt rare du Lac-Boulé est un écosystème forestier exceptionnel du Québec située en Mauricie. Cette aire protégée de 5 ha protège un pinède rouge, un regroupement forestier rare à l'est de la rivière Gatineau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_du_Lac-Boul%C3%A9</t>
+          <t>Forêt_rare_du_Lac-Boulé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt rare du Lac-Boulé est située à 30 km au nord-est de Saint-Michel-des-Saints, sur le territoire non-organisé de Lac-Boulé et la zec du Chapeau-de-Paille[1]. Elle a une superficie de 4,74 ha[2]. La forêt est située sur une pente forte au nord du lac Boulé. Le sol est composé de till mince qui a un drainage excessif. Les affleurements rocheux y sont fréquents[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt rare du Lac-Boulé est située à 30 km au nord-est de Saint-Michel-des-Saints, sur le territoire non-organisé de Lac-Boulé et la zec du Chapeau-de-Paille. Elle a une superficie de 4,74 ha. La forêt est située sur une pente forte au nord du lac Boulé. Le sol est composé de till mince qui a un drainage excessif. Les affleurements rocheux y sont fréquents.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_du_Lac-Boul%C3%A9</t>
+          <t>Forêt_rare_du_Lac-Boulé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est une pinède rouge qui s'est installée à la suite d'un feux de forêt il y a 125 ans. Les plus grands arbres atteignent une hauteur de 25 m et un diamètre de 40 cm. Les pins rouges sont accompagnés de quelques pins blancs et gris[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est une pinède rouge qui s'est installée à la suite d'un feux de forêt il y a 125 ans. Les plus grands arbres atteignent une hauteur de 25 m et un diamètre de 40 cm. Les pins rouges sont accompagnés de quelques pins blancs et gris.
 </t>
         </is>
       </c>
